--- a/src/ExcelsiorAspose.Tests/EnumerableStringTests.Test.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/EnumerableStringTests.Test.verified.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$2</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -33,7 +35,9 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">    ● +1 8634446859  </t>
+      <t xml:space="preserve">    ● +1 3057380950 
+    ●+1 5056169368 
+    ●+1 8634446859  </t>
     </r>
   </si>
 </sst>
@@ -495,7 +499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.75">
+    <row r="2" spans="1:2" ht="38.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -504,6 +508,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/ExcelsiorAspose.Tests/EnumerableStringTests.Test.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/EnumerableStringTests.Test.verified.xlsx
@@ -491,7 +491,7 @@
     <col min="2" max="2" width="18.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
+    <row r="1" spans="1:2" ht="13" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/src/ExcelsiorAspose.Tests/EnumerableStringTests.Test.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/EnumerableStringTests.Test.verified.xlsx
@@ -35,9 +35,9 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">    ● +1 3057380950 
-    ●+1 5056169368 
-    ●+1 8634446859  </t>
+      <t xml:space="preserve">    ● 3057380950 
+    ● 5056169368 
+    ● 8634446859</t>
     </r>
   </si>
 </sst>
@@ -488,7 +488,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.71428571428571" customWidth="1"/>
-    <col min="2" max="2" width="18.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="16.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13" customHeight="1">

--- a/src/ExcelsiorAspose.Tests/EnumerableStringTests.Test.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/EnumerableStringTests.Test.verified.xlsx
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="38.25">
+    <row r="2" spans="1:2" ht="38" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>

--- a/src/ExcelsiorAspose.Tests/EnumerableStringTests.Test.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/EnumerableStringTests.Test.verified.xlsx
@@ -81,16 +81,13 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -487,11 +484,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.71428571428571" customWidth="1"/>
-    <col min="2" max="2" width="16.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="9.71428571428571" customWidth="1"/>
+    <col min="2" max="2" width="17.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" customHeight="1">
+    <row r="1" spans="1:2" ht="14" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,11 +496,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="38" customHeight="1">
+    <row r="2" spans="1:2" ht="39" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/ExcelsiorAspose.Tests/EnumerableStringTests.Test.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/EnumerableStringTests.Test.verified.xlsx
@@ -35,9 +35,9 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">    ● 3057380950 
-    ● 5056169368 
-    ● 8634446859</t>
+      <t xml:space="preserve">    ● +1 3057380950 
+    ● +1 5056169368 
+    ● +1 8634446859</t>
     </r>
   </si>
 </sst>
@@ -485,7 +485,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.71428571428571" customWidth="1"/>
-    <col min="2" max="2" width="17.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="19.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" customHeight="1">

--- a/src/ExcelsiorAspose.Tests/EnumerableStringTests.Test.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/EnumerableStringTests.Test.verified.xlsx
@@ -485,7 +485,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.71428571428571" customWidth="1"/>
-    <col min="2" max="2" width="19.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="29.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" customHeight="1">

--- a/src/ExcelsiorAspose.Tests/EnumerableStringTests.Test.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/EnumerableStringTests.Test.verified.xlsx
@@ -28,17 +28,9 @@
     <t>John Doe</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    ● +1 3057380950 
-    ● +1 5056169368 
-    ● +1 8634446859</t>
-    </r>
+    <t>● +1 3057380950
+● +1 5056169368
+● +1 8634446859</t>
   </si>
 </sst>
 </file>
@@ -81,13 +73,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -485,7 +474,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.71428571428571" customWidth="1"/>
-    <col min="2" max="2" width="29.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="27.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" customHeight="1">

--- a/src/ExcelsiorAspose.Tests/EnumerableStringTests.Test.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/EnumerableStringTests.Test.verified.xlsx
@@ -474,7 +474,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.71428571428571" customWidth="1"/>
-    <col min="2" max="2" width="27.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="22.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" customHeight="1">
